--- a/biology/Botanique/Liste_des_variétés_traditionnelles_de_blé_du_Canada/Liste_des_variétés_traditionnelles_de_blé_du_Canada.xlsx
+++ b/biology/Botanique/Liste_des_variétés_traditionnelles_de_blé_du_Canada/Liste_des_variétés_traditionnelles_de_blé_du_Canada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_vari%C3%A9t%C3%A9s_traditionnelles_de_bl%C3%A9_du_Canada</t>
+          <t>Liste_des_variétés_traditionnelles_de_blé_du_Canada</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des variétés traditionnelles de blé du Canada commence avec le blé 'Red Fife', qui fut la première variété de blé nommée et sélectionnée au Canada[1]. Les sélectionneurs continuent d'utiliser les variétés de blé traditionnelles afin de créer de nouvelles variétés.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des variétés traditionnelles de blé du Canada commence avec le blé 'Red Fife', qui fut la première variété de blé nommée et sélectionnée au Canada. Les sélectionneurs continuent d'utiliser les variétés de blé traditionnelles afin de créer de nouvelles variétés.
 Des agriculteurs cultivent des variétés  de blé anciennes, ou « patrimoniales », dans le cadre de mouvements tels que le régime des 100 milles (100 Mile Diet), le « Locavorisme » ou Slow Food. Le blé 'Red Fife' est la première variété ancienne de blé préservée pour célébrer le « terroir » qui se situe à l'interaction entre le patrimoine génétique de la variété et les conditions de culture dans le territoire où elle est cultivée.
 Il n'existe pas de blé indigène au Canada. Toutes les variétés cultivées dans ce pays ont des origines dans diverses parties du monde.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_vari%C3%A9t%C3%A9s_traditionnelles_de_bl%C3%A9_du_Canada</t>
+          <t>Liste_des_variétés_traditionnelles_de_blé_du_Canada</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès 1812, l'Amérique du nord teste les blés d'hiver venus d'Ukraine et de Russie, grâce aux immigrants scandinaves, russes et ukrainiens qui s'installent sur le pourtour des Grands Lacs, en particulier au Canada (Manitoba, Saskatchewan et Alberta) mais aussi dans le Minnesota et le Dakota du Nord. Les immigrants allemands s'installent aussi au nord des grands Lacs américains. Ils tentent d'y faire pousser des blés de printemps, plus résistants aux rudes hivers, qu'ils importent d'Ukraine et de Russie.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_vari%C3%A9t%C3%A9s_traditionnelles_de_bl%C3%A9_du_Canada</t>
+          <t>Liste_des_variétés_traditionnelles_de_blé_du_Canada</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,17 +558,19 @@
           <t>Variétés traditionnelles de blé du Canada</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La liste présentée ci-dessous recense les variétés canadiennes de blé avec l'année où elles ont été officiellement reconnues, leur parenté, leur lieu de développement et divers commentaires[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La liste présentée ci-dessous recense les variétés canadiennes de blé avec l'année où elles ont été officiellement reconnues, leur parenté, leur lieu de développement et divers commentaires.
 Nota : les noms de variétés sont indiqués entre guillemets simples, selon les règles du Code international pour la nomenclature des plantes cultivées.
-'Red Fife'[3], 1885, cette variété originaire d'Europe centrale a été cultivée à l'origine par David Fife, agriculteur à Peterborough en Ontario. Avec des rendements élevés, une bonne qualité, c'est un excellent blé pour la minoterie. Largement cultivé au Canada de 1860 à 1900, ce blé était devenu la norme de l'industrie.
+'Red Fife', 1885, cette variété originaire d'Europe centrale a été cultivée à l'origine par David Fife, agriculteur à Peterborough en Ontario. Avec des rendements élevés, une bonne qualité, c'est un excellent blé pour la minoterie. Largement cultivé au Canada de 1860 à 1900, ce blé était devenu la norme de l'industrie.
 'Ladoga', 1888, variété originaire de Russie. Précoce, génitrice de 'Preston' and 'Stanley'.
 'Hard Red Calcutta',1890, variété d'origine indienne. Génitrice de 'Marquis', cette variété n'a jamais été cultivée commercialement au Canada.
 'Stanley', 1895, 'Ladoga' × 'Red Fife'. Variété créée par Agriculture Canada à Ottawa. Variété apparentée à 'Preston' mais jamais largement cultivée.
 'Preston', 1895, 'Ladoga' × 'Red Fife'. Mise au point par Agriculture Canada. Génitrice de 'Garnet
 'Bishop'. 1904. Variété créée par Charles Saunders à la Ferme expérimentale centrale à Ottawa. 'Ladoga' × 'Gehun'.
-'Marquis'[3], 1910, 'Red Fife' × 'Hard Red Calcutta'. Mise au point par Agriculture Canada (Ottawa). William Saunders réalisa le croisement à Agassiz en 1892. Charles Saunders l'a sélectionné à Ottawa, en utilisant un test de mastication pour en déterminer la qualité.
+'Marquis', 1910, 'Red Fife' × 'Hard Red Calcutta'. Mise au point par Agriculture Canada (Ottawa). William Saunders réalisa le croisement à Agassiz en 1892. Charles Saunders l'a sélectionné à Ottawa, en utilisant un test de mastication pour en déterminer la qualité.
 'Kitchener', 1911. Sélection issue de 'Marquis' mise au point par Agriculture Canada. Seager Wheeler réalisa la sélection, mais cette variété ne fut jamais aussi bonne que 'Marquis'.
 'Prelude', 1913, 'Downey Gehun' × 'Fraser'. Mise au point par Agriculture Canada. Variété très précoce mais à rendement faible.
 'Ruby', 1920, 'Downy Riga' × 'Red Fife'. Mise au point par Agriculture Canada. Cette variété mûrit 7 à 10 jours plus tôt que 'Marquis', mais est sensible à l'égrenage.
